--- a/public/templates/ImporJam.xlsx
+++ b/public/templates/ImporJam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project\Laravel\AgendaKBM\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99646B4-EE3A-4C02-8355-243468319590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96997F4-DFF3-4C2C-86EA-EE23750764B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FADD8C8E-7FE8-45FA-BB6C-EBB1EA053B83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>KODE MAPEL</t>
   </si>
@@ -148,25 +148,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">INSTRUKSI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Isi 2 Digit Jam
-Pisah Dengan :
-Isi 2 Digit Menit
-(Contoh: 07:00)</t>
-    </r>
-  </si>
-  <si>
     <t>JAM SELESAI</t>
   </si>
   <si>
@@ -186,6 +167,28 @@
 Pisah Dengan :
 Isi 2 Digit Menit
 (Contoh: 10:00)</t>
+    </r>
+  </si>
+  <si>
+    <t>selasa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Digit Jam
+Pisah Dengan :
+Isi 2 Digit Menit
+(Contoh: 7:00)</t>
     </r>
   </si>
 </sst>
@@ -244,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,6 +257,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +581,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -619,15 +628,31 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.41666666666666669</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>

--- a/public/templates/ImporJam.xlsx
+++ b/public/templates/ImporJam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project\Laravel\AgendaKBM\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96997F4-DFF3-4C2C-86EA-EE23750764B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069D540-BE2E-4E0A-93F9-442E04BAB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FADD8C8E-7FE8-45FA-BB6C-EBB1EA053B83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>KODE MAPEL</t>
   </si>
@@ -166,11 +166,9 @@
       <t>Isi 2 Digit Jam
 Pisah Dengan :
 Isi 2 Digit Menit
-(Contoh: 10:00)</t>
-    </r>
-  </si>
-  <si>
-    <t>selasa</t>
+Bungkus Dalam [ ]
+Contoh: [07:00]</t>
+    </r>
   </si>
   <si>
     <r>
@@ -185,10 +183,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Isi Digit Jam
+      <t>Isi 2 Digit Jam
 Pisah Dengan :
 Isi 2 Digit Menit
-(Contoh: 7:00)</t>
+Bungkus Dalam [ ]
+Contoh: [15:00]</t>
     </r>
   </si>
 </sst>
@@ -581,7 +580,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,31 +627,19 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>

--- a/public/templates/ImporJam.xlsx
+++ b/public/templates/ImporJam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project\Laravel\AgendaKBM\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069D540-BE2E-4E0A-93F9-442E04BAB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{058DC6B1-D09B-4F2F-AE61-285C3516E185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FADD8C8E-7FE8-45FA-BB6C-EBB1EA053B83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5245B64B-93F2-42CC-A7AC-9B37E79DCDB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>KODE MAPEL</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>KELAS</t>
   </si>
   <si>
     <r>
@@ -51,37 +51,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Kode Mapel Harus 
-Sesuai Dengan Kode Mapel 
-Pada Aplikasi Agenda
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Kode Mapel Dapat Dilihat Di Laman
-Mapel Pada Kolom 2 Berkotak Hijau</t>
-    </r>
-  </si>
-  <si>
-    <t>KODE GURU</t>
+      <t>Nama Kelas Harus Disesuaikan
+Dengan Nama Kelas Pada Aplikasi Agenda</t>
+    </r>
   </si>
   <si>
     <r>
@@ -96,98 +68,363 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Kode Guru Harus 
-Sesuai Dengan Kode Guru
-Pada Aplikasi Agenda
-Kode Guru Dapat Dilihat Di Laman
-Guru Pada Kolom 2 Berkotak Hijau</t>
-    </r>
-  </si>
-  <si>
-    <t>HARI</t>
-  </si>
-  <si>
-    <t>JAM KE</t>
-  </si>
-  <si>
-    <t>JAM MULAI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSTRUKSI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Isi Angka Jam Saja
-(Contoh : 1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSTRUKSI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Isi Nama Hari
-Dalam Huruf Kecil
-(Contoh : senin)</t>
-    </r>
-  </si>
-  <si>
-    <t>JAM SELESAI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSTRUKSI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Isi 2 Digit Jam
-Pisah Dengan :
-Isi 2 Digit Menit
-Bungkus Dalam [ ]
-Contoh: [07:00]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">INSTRUKSI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Isi 2 Digit Jam
-Pisah Dengan :
-Isi 2 Digit Menit
-Bungkus Dalam [ ]
-Contoh: [15:00]</t>
+      <t>NIsi Kode Guru,Mapel
+Pada Jam Ke 0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INSTRUKSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+NIsi Kode Guru,Mapel
+Pada Jam Ke 3</t>
     </r>
   </si>
 </sst>
@@ -195,7 +432,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +459,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,22 +496,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,109 +820,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E72DAF-93FD-4535-997D-F9CA6250A9AC}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91B018A-AADA-429C-8088-DDE67BFD5CE3}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.21875" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" customWidth="1"/>
+    <col min="13" max="13" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <f>COLUMN(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <f t="shared" ref="D1:M1" si="0">COLUMN(B1)</f>
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/templates/ImporJam.xlsx
+++ b/public/templates/ImporJam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project\Laravel\AgendaKBM\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058DC6B1-D09B-4F2F-AE61-285C3516E185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2475D53-1C9B-47C4-8F3C-AE02A3D481A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5245B64B-93F2-42CC-A7AC-9B37E79DCDB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>KELAS</t>
   </si>
@@ -68,363 +68,211 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>NIsi Kode Guru,Mapel
-Pada Jam Ke 0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INSTRUKSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-NIsi Kode Guru,Mapel
-Pada Jam Ke 3</t>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 0
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 1
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 2
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 3
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 4
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 5
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 6
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 7
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 8
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 9
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSTRUKSI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isi Kode Guru,Mapel
+Pada Jam Ke 10
+(Contoh : 73,1)
+Kosongkan Jika
+Tidak Ada Jam</t>
     </r>
   </si>
 </sst>
@@ -432,14 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,15 +337,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -821,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91B018A-AADA-429C-8088-DDE67BFD5CE3}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,10 +679,9 @@
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" customWidth="1"/>
     <col min="12" max="12" width="26.109375" customWidth="1"/>
-    <col min="13" max="13" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:M1" si="0">COLUMN(B1)</f>
+        <f t="shared" ref="D1:L1" si="0">COLUMN(B1)</f>
         <v>2</v>
       </c>
       <c r="E1" s="1">
@@ -891,54 +728,47 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M1" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/templates/ImporJam.xlsx
+++ b/public/templates/ImporJam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project\Laravel\AgendaKBM\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2475D53-1C9B-47C4-8F3C-AE02A3D481A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D357BE8-0E0C-4E8C-9EFF-904B0FFAB8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5245B64B-93F2-42CC-A7AC-9B37E79DCDB8}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91B018A-AADA-429C-8088-DDE67BFD5CE3}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
